--- a/medicine/Enfance/Viktor_Tchijikov/Viktor_Tchijikov.xlsx
+++ b/medicine/Enfance/Viktor_Tchijikov/Viktor_Tchijikov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viktor Alexandrovitch Tchijikov (en russe : Виктор Александрович Чижиков), né le 26 septembre 1935 à Moscou (URSS) et mort le 20 juillet 2020[1], est un auteur et illustrateur soviétique puis russe d'ouvrages jeunesse.
-Il est notamment le créateur de la mascotte des Jeux olympiques de Moscou 1980 nommée Micha[2],[3],[4].
-Depuis 1955 il travaille pour le magazine Krokodil, depuis 1956 - pour le magazine Vesiolye Kartinki, depuis 1958 - pour le magazine Mourzilka, depuis 1959 - pour le magazine Vokroug sveta. Il a également collaboré avec Vetcherniaïa Moskva, Pionerskaïa Pravda, Iouny Natouralist, Molodaïa Gvardia, Ogoniok, Pioner, Nedelia[5].
-En outre, il a illustré une centaine de livres pour enfants. Il compte dans son entourage d'autres illustrateurs tels qu'Edouard Ouspenski ou Andreï Oussatchiov[6].
-Parmi les œuvres les plus importantes de ses dernières années se trouve le livre 333 chats (2005), créé en collaboration avec le poète et écrivain Andreï Oussatchiov[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viktor Alexandrovitch Tchijikov (en russe : Виктор Александрович Чижиков), né le 26 septembre 1935 à Moscou (URSS) et mort le 20 juillet 2020, est un auteur et illustrateur soviétique puis russe d'ouvrages jeunesse.
+Il est notamment le créateur de la mascotte des Jeux olympiques de Moscou 1980 nommée Micha.
+Depuis 1955 il travaille pour le magazine Krokodil, depuis 1956 - pour le magazine Vesiolye Kartinki, depuis 1958 - pour le magazine Mourzilka, depuis 1959 - pour le magazine Vokroug sveta. Il a également collaboré avec Vetcherniaïa Moskva, Pionerskaïa Pravda, Iouny Natouralist, Molodaïa Gvardia, Ogoniok, Pioner, Nedelia.
+En outre, il a illustré une centaine de livres pour enfants. Il compte dans son entourage d'autres illustrateurs tels qu'Edouard Ouspenski ou Andreï Oussatchiov.
+Parmi les œuvres les plus importantes de ses dernières années se trouve le livre 333 chats (2005), créé en collaboration avec le poète et écrivain Andreï Oussatchiov.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ostap d'or (1997)
 Ordre de l'Insigne d'honneur</t>
